--- a/diagnostico.xlsx
+++ b/diagnostico.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="65001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -242,37 +243,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,556 +655,587 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.25</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>0.5</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>0.75</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>0.75</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.75</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.5</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>0.25</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>0.75</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.5</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.75</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0.25</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="9">
         <v>1</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="9">
         <v>0.5</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="9">
         <v>0.5</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.25</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.5</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.5</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.5</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="7">
         <v>0.25</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>0.5</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <v>0.5</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>0.25</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
@@ -1211,42 +1243,11 @@
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
